--- a/GM.xlsx
+++ b/GM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/arun_joshi_maersk_com/Documents/Azure Databricks/PMPH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Streamlit App\Decarb Strategy\pmph_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104886895B7B8C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79805ED2-4472-463C-80FA-7D3606093935}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AEA249-5AA9-48B7-AFDD-AD8A1F77D602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,60 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEG BASELINE </t>
-  </si>
-  <si>
-    <t>Road map</t>
-  </si>
-  <si>
-    <t>Avg of FT in that vessel in that segment</t>
-  </si>
-  <si>
-    <t>15 knots was refrence line</t>
-  </si>
-  <si>
-    <t>10FT</t>
-  </si>
-  <si>
-    <t>1FT</t>
-  </si>
-  <si>
-    <t>ME / AE</t>
-  </si>
-  <si>
-    <t>SEG DATA</t>
-  </si>
-  <si>
-    <t>Seg harbour cons</t>
-  </si>
-  <si>
-    <t>saving in aux due to 1 hr ps reduction</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>legs</t>
-  </si>
-  <si>
-    <t>24hr Hrbr</t>
-  </si>
-  <si>
-    <t>AE split</t>
-  </si>
-  <si>
-    <t>VOY EXE</t>
-  </si>
-  <si>
-    <t>Hrbr cons</t>
-  </si>
-  <si>
-    <t>AUX + BLR</t>
   </si>
 </sst>
 </file>
@@ -184,7 +133,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +493,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -581,7 +530,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>5.5</v>
       </c>
@@ -618,7 +567,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -659,7 +608,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>6.5</v>
       </c>
@@ -700,7 +649,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -747,7 +696,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>7.5</v>
       </c>
@@ -794,7 +743,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -847,7 +796,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8.5</v>
       </c>
@@ -900,7 +849,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -961,7 +910,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9.5</v>
       </c>
@@ -1022,7 +971,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1093,7 +1042,7 @@
         <v>0.53203570221190899</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>10.5</v>
       </c>
@@ -1164,7 +1113,7 @@
         <v>0.56308686008206177</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1234,14 +1183,8 @@
       <c r="W14" s="3">
         <v>0.59725010417421676</v>
       </c>
-      <c r="Y14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11.5</v>
       </c>
@@ -1311,11 +1254,8 @@
       <c r="W15" s="3">
         <v>0.63466177867157969</v>
       </c>
-      <c r="Y15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1385,11 +1325,8 @@
       <c r="W16" s="3">
         <v>0.67546883699399074</v>
       </c>
-      <c r="Y16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>12.5</v>
       </c>
@@ -1460,7 +1397,7 @@
         <v>0.71983631460852227</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -1530,23 +1467,9 @@
       <c r="W18" s="3">
         <v>0.76786498296524197</v>
       </c>
-      <c r="Y18" s="4">
-        <v>700</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>13.5</v>
       </c>
@@ -1616,17 +1539,8 @@
       <c r="W19" s="3">
         <v>0.81977985696613731</v>
       </c>
-      <c r="AB19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1696,11 +1610,8 @@
       <c r="W20" s="3">
         <v>0.87562732774256347</v>
       </c>
-      <c r="Y20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>14.5</v>
       </c>
@@ -1771,7 +1682,7 @@
         <v>0.93569457432230718</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -1841,23 +1752,8 @@
       <c r="W22" s="3">
         <v>1</v>
       </c>
-      <c r="Y22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>15.5</v>
       </c>
@@ -1927,28 +1823,8 @@
       <c r="W23" s="3">
         <v>1.0687415093448345</v>
       </c>
-      <c r="AB23">
-        <v>2022</v>
-      </c>
-      <c r="AC23">
-        <v>100</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <f>AC23*AD23</f>
-        <v>100</v>
-      </c>
-      <c r="AF23">
-        <v>10</v>
-      </c>
-      <c r="AG23">
-        <f>AF23*AE23/24</f>
-        <v>41.666666666666664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>16</v>
       </c>
@@ -2019,7 +1895,7 @@
         <v>1.1420760016205229</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>16.5</v>
       </c>
@@ -2090,7 +1966,7 @@
         <v>1.220125594065453</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>17</v>
       </c>
@@ -2161,7 +2037,7 @@
         <v>1.3030508367578932</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>17.5</v>
       </c>
@@ -2232,7 +2108,7 @@
         <v>1.3910107516990684</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>18</v>
       </c>
@@ -2303,7 +2179,7 @@
         <v>1.4841269013513714</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>18.5</v>
       </c>
@@ -2374,7 +2250,7 @@
         <v>1.5825833093511996</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2443,7 +2319,7 @@
         <v>1.6864942106002823</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>19.5</v>
       </c>
@@ -2510,7 +2386,7 @@
         <v>1.7960230110422286</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2577,7 +2453,7 @@
         <v>1.9113125063256875</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>20.5</v>
       </c>
@@ -2644,7 +2520,7 @@
         <v>2.0328187215733355</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>21</v>
       </c>
@@ -2711,7 +2587,7 @@
         <v>2.1614076090601815</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>21.5</v>
       </c>
@@ -2776,7 +2652,7 @@
         <v>2.2972278435458198</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>22</v>
       </c>
@@ -2841,7 +2717,7 @@
         <v>2.440385117945572</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>22.5</v>
       </c>
@@ -2904,7 +2780,7 @@
         <v>2.5904834205255356</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>23</v>
       </c>
@@ -2967,7 +2843,7 @@
         <v>2.7434260387510454</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>23.5</v>
       </c>
@@ -3026,7 +2902,7 @@
         <v>2.8892524748668378</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>24</v>
       </c>
@@ -3081,7 +2957,7 @@
         <v>3.043456483676243</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>24.5</v>
       </c>
@@ -3134,7 +3010,7 @@
         <v>3.2018748846227467</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>25</v>
       </c>
@@ -3183,7 +3059,7 @@
       </c>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>25.5</v>
       </c>
@@ -3230,7 +3106,7 @@
       </c>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>26</v>
       </c>
@@ -3271,7 +3147,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>26.5</v>
       </c>
@@ -3312,7 +3188,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>27</v>
       </c>
@@ -3351,7 +3227,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>27.5</v>
       </c>
@@ -3388,7 +3264,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>28</v>
       </c>
@@ -3423,7 +3299,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>28.5</v>
       </c>
